--- a/element_info_datas/elements_info.xlsx
+++ b/element_info_datas/elements_info.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24380" windowHeight="11940" activeTab="1"/>
+    <workbookView windowWidth="24380" windowHeight="11940" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="LoginPage" sheetId="1" r:id="rId1"/>
@@ -1180,7 +1180,7 @@
   <sheetPr/>
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
@@ -1291,8 +1291,8 @@
   <sheetPr/>
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="5" outlineLevelCol="4"/>

--- a/element_info_datas/elements_info.xlsx
+++ b/element_info_datas/elements_info.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24380" windowHeight="11940" activeTab="2"/>
+    <workbookView windowWidth="28060" windowHeight="11940" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="LoginPage" sheetId="1" r:id="rId1"/>
-    <sheet name="MainPage" sheetId="2" r:id="rId2"/>
-    <sheet name="ProductPage" sheetId="3" r:id="rId3"/>
+    <sheet name="Login" sheetId="1" r:id="rId1"/>
+    <sheet name="Main" sheetId="2" r:id="rId2"/>
+    <sheet name="Product" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45">
   <si>
     <t>元素变量名</t>
   </si>
@@ -24,6 +24,9 @@
     <t>元素名称</t>
   </si>
   <si>
+    <t>所属页面</t>
+  </si>
+  <si>
     <t>定位方式</t>
   </si>
   <si>
@@ -39,6 +42,9 @@
     <t>用户名输入框</t>
   </si>
   <si>
+    <t>LoginPage</t>
+  </si>
+  <si>
     <t>xpath</t>
   </si>
   <si>
@@ -69,6 +75,9 @@
     <t>产品菜单</t>
   </si>
   <si>
+    <t>MainPage</t>
+  </si>
+  <si>
     <t>//nav/ul/li[2]/a[@href="/zentao3/www/product-index-no.html"]</t>
   </si>
   <si>
@@ -100,6 +109,9 @@
   </si>
   <si>
     <t>添加产品控件</t>
+  </si>
+  <si>
+    <t>ProductMainPage</t>
   </si>
   <si>
     <t>//div[2]/div/a[@href="/zentao3/www/product-create.html"]</t>
@@ -146,9 +158,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -167,23 +179,77 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -197,6 +263,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -206,7 +286,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -214,52 +294,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -280,29 +315,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -313,55 +325,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -373,127 +505,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -518,18 +530,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -564,17 +584,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -596,11 +610,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -609,145 +621,145 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1086,22 +1098,22 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="3" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="3" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="18.75" style="3" customWidth="1"/>
-    <col min="2" max="2" width="15.6160714285714" style="3" customWidth="1"/>
-    <col min="3" max="3" width="20.9821428571429" style="3" customWidth="1"/>
-    <col min="4" max="4" width="24.6964285714286" style="3" customWidth="1"/>
-    <col min="5" max="5" width="11.4464285714286" style="3" customWidth="1"/>
+    <col min="2" max="3" width="15.6160714285714" style="3" customWidth="1"/>
+    <col min="4" max="4" width="20.9821428571429" style="3" customWidth="1"/>
+    <col min="5" max="5" width="24.6964285714286" style="3" customWidth="1"/>
+    <col min="6" max="6" width="11.4464285714286" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1117,55 +1129,67 @@
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="3">
+      <c r="D3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="2" t="s">
+    <row r="4" spans="1:6">
+      <c r="A4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="3">
+      <c r="E4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="3">
         <v>3</v>
       </c>
     </row>
@@ -1178,21 +1202,21 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="6" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="6" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="18.1517857142857" customWidth="1"/>
-    <col min="2" max="2" width="16.6607142857143" customWidth="1"/>
-    <col min="3" max="3" width="14.4285714285714" customWidth="1"/>
-    <col min="4" max="4" width="63.6785714285714" customWidth="1"/>
+    <col min="2" max="3" width="16.6607142857143" customWidth="1"/>
+    <col min="4" max="4" width="14.4285714285714" customWidth="1"/>
+    <col min="5" max="5" width="63.6785714285714" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1208,77 +1232,92 @@
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" s="2">
+        <v>9</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="2">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>7</v>
-      </c>
       <c r="D3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" s="2">
+        <v>9</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:6">
       <c r="A4" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="2">
+        <v>9</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:6">
       <c r="A5" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" s="2">
+        <v>9</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="4:4">
-      <c r="D7" s="2"/>
+    <row r="7" spans="5:5">
+      <c r="E7" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
@@ -1289,22 +1328,22 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="5" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="25.7410714285714" customWidth="1"/>
-    <col min="2" max="2" width="19.9464285714286" customWidth="1"/>
-    <col min="3" max="3" width="16.0625" customWidth="1"/>
-    <col min="4" max="4" width="62.3482142857143" customWidth="1"/>
-    <col min="5" max="5" width="20.2321428571429" style="1" customWidth="1"/>
+    <col min="2" max="3" width="19.9464285714286" customWidth="1"/>
+    <col min="4" max="4" width="16.0625" customWidth="1"/>
+    <col min="5" max="5" width="62.3482142857143" customWidth="1"/>
+    <col min="6" max="6" width="20.2321428571429" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1317,92 +1356,110 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="D2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E2" s="1">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" t="s">
         <v>31</v>
       </c>
-      <c r="E3" s="1">
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" t="s">
-        <v>34</v>
-      </c>
-      <c r="E4" s="1">
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F5" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E5" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B6" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C6" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="D6" t="s">
-        <v>40</v>
-      </c>
-      <c r="E6" s="1">
+        <v>9</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" s="1">
         <v>5</v>
       </c>
     </row>
